--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Sema6a</t>
+  </si>
+  <si>
+    <t>Plxna2</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema6a</t>
-  </si>
-  <si>
-    <t>Plxna2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.71547150000001</v>
+        <v>46.781782</v>
       </c>
       <c r="H2">
-        <v>119.430943</v>
+        <v>93.563564</v>
       </c>
       <c r="I2">
-        <v>0.4607246249879492</v>
+        <v>0.8588256727765313</v>
       </c>
       <c r="J2">
-        <v>0.4025597006271108</v>
+        <v>0.8491904317781892</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N2">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O2">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P2">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q2">
-        <v>1870.698961957884</v>
+        <v>2251.276350288587</v>
       </c>
       <c r="R2">
-        <v>7482.795847831536</v>
+        <v>9005.105401154347</v>
       </c>
       <c r="S2">
-        <v>0.1703996508977614</v>
+        <v>0.7548253855187963</v>
       </c>
       <c r="T2">
-        <v>0.1259508109734428</v>
+        <v>0.7335270071633224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.71547150000001</v>
+        <v>46.781782</v>
       </c>
       <c r="H3">
-        <v>119.430943</v>
+        <v>93.563564</v>
       </c>
       <c r="I3">
-        <v>0.4607246249879492</v>
+        <v>0.8588256727765313</v>
       </c>
       <c r="J3">
-        <v>0.4025597006271108</v>
+        <v>0.8491904317781892</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.394928</v>
       </c>
       <c r="O3">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P3">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q3">
-        <v>87.48173257618402</v>
+        <v>68.53418786723201</v>
       </c>
       <c r="R3">
-        <v>524.8903954571041</v>
+        <v>411.205127203392</v>
       </c>
       <c r="S3">
-        <v>0.007968602642143705</v>
+        <v>0.02297867375165633</v>
       </c>
       <c r="T3">
-        <v>0.008834982581965228</v>
+        <v>0.03349545095263982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.71547150000001</v>
+        <v>46.781782</v>
       </c>
       <c r="H4">
-        <v>119.430943</v>
+        <v>93.563564</v>
       </c>
       <c r="I4">
-        <v>0.4607246249879492</v>
+        <v>0.8588256727765313</v>
       </c>
       <c r="J4">
-        <v>0.4025597006271108</v>
+        <v>0.8491904317781892</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N4">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O4">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P4">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q4">
-        <v>69.0061837023845</v>
+        <v>2.352920913544667</v>
       </c>
       <c r="R4">
-        <v>414.0371022143071</v>
+        <v>14.117525481268</v>
       </c>
       <c r="S4">
-        <v>0.006285687783974856</v>
+        <v>0.0007889055625862741</v>
       </c>
       <c r="T4">
-        <v>0.006969094153771204</v>
+        <v>0.00114996835167515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>59.71547150000001</v>
+        <v>46.781782</v>
       </c>
       <c r="H5">
-        <v>119.430943</v>
+        <v>93.563564</v>
       </c>
       <c r="I5">
-        <v>0.4607246249879492</v>
+        <v>0.8588256727765313</v>
       </c>
       <c r="J5">
-        <v>0.4025597006271108</v>
+        <v>0.8491904317781892</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N5">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O5">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P5">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q5">
-        <v>1345.095474197863</v>
+        <v>220.578604955337</v>
       </c>
       <c r="R5">
-        <v>5380.381896791451</v>
+        <v>882.314419821348</v>
       </c>
       <c r="S5">
-        <v>0.1225230803504529</v>
+        <v>0.07395730448697131</v>
       </c>
       <c r="T5">
-        <v>0.0905628694178655</v>
+        <v>0.07187050311100555</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>59.71547150000001</v>
+        <v>46.781782</v>
       </c>
       <c r="H6">
-        <v>119.430943</v>
+        <v>93.563564</v>
       </c>
       <c r="I6">
-        <v>0.4607246249879492</v>
+        <v>0.8588256727765313</v>
       </c>
       <c r="J6">
-        <v>0.4025597006271108</v>
+        <v>0.8491904317781892</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N6">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O6">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P6">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q6">
-        <v>1652.574875801411</v>
+        <v>10.644820239844</v>
       </c>
       <c r="R6">
-        <v>9915.449254808465</v>
+        <v>63.868921439064</v>
       </c>
       <c r="S6">
-        <v>0.1505309981164739</v>
+        <v>0.003569077843459131</v>
       </c>
       <c r="T6">
-        <v>0.1668973603190118</v>
+        <v>0.00520255751675493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>2</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.71547150000001</v>
+        <v>46.781782</v>
       </c>
       <c r="H7">
-        <v>119.430943</v>
+        <v>93.563564</v>
       </c>
       <c r="I7">
-        <v>0.4607246249879492</v>
+        <v>0.8588256727765313</v>
       </c>
       <c r="J7">
-        <v>0.4025597006271108</v>
+        <v>0.8491904317781892</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N7">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O7">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P7">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q7">
-        <v>33.11720523604167</v>
+        <v>8.071650696643333</v>
       </c>
       <c r="R7">
-        <v>198.70323141625</v>
+        <v>48.42990417986</v>
       </c>
       <c r="S7">
-        <v>0.003016605197142385</v>
+        <v>0.002706325613062055</v>
       </c>
       <c r="T7">
-        <v>0.003344583181054307</v>
+        <v>0.003944944682791314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>3.37788</v>
       </c>
       <c r="I8">
-        <v>0.0086871540276029</v>
+        <v>0.02067051132253712</v>
       </c>
       <c r="J8">
-        <v>0.01138564535619806</v>
+        <v>0.03065791054832958</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N8">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O8">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P8">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q8">
-        <v>35.27280536009999</v>
+        <v>54.18449257386001</v>
       </c>
       <c r="R8">
-        <v>211.6368321606</v>
+        <v>325.10695544316</v>
       </c>
       <c r="S8">
-        <v>0.003212956141941263</v>
+        <v>0.01816739668186954</v>
       </c>
       <c r="T8">
-        <v>0.00356228222505932</v>
+        <v>0.02648216999255013</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>3.37788</v>
       </c>
       <c r="I9">
-        <v>0.0086871540276029</v>
+        <v>0.02067051132253712</v>
       </c>
       <c r="J9">
-        <v>0.01138564535619806</v>
+        <v>0.03065791054832958</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.394928</v>
       </c>
       <c r="O9">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P9">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q9">
         <v>1.64950437696</v>
@@ -1013,10 +1013,10 @@
         <v>14.84553939264</v>
       </c>
       <c r="S9">
-        <v>0.0001502513101809491</v>
+        <v>0.0005530586136589443</v>
       </c>
       <c r="T9">
-        <v>0.0002498808953050693</v>
+        <v>0.001209270030200036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>3.37788</v>
       </c>
       <c r="I10">
-        <v>0.0086871540276029</v>
+        <v>0.02067051132253712</v>
       </c>
       <c r="J10">
-        <v>0.01138564535619806</v>
+        <v>0.03065791054832958</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N10">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O10">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P10">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q10">
-        <v>1.30114023468</v>
+        <v>0.05663090884000001</v>
       </c>
       <c r="R10">
-        <v>11.71026211212</v>
+        <v>0.5096781795600001</v>
       </c>
       <c r="S10">
-        <v>0.0001185192520374612</v>
+        <v>1.898765009100426E-05</v>
       </c>
       <c r="T10">
-        <v>0.000197107744181009</v>
+        <v>4.151675000063548E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>3.37788</v>
       </c>
       <c r="I11">
-        <v>0.0086871540276029</v>
+        <v>0.02067051132253712</v>
       </c>
       <c r="J11">
-        <v>0.01138564535619806</v>
+        <v>0.03065791054832958</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N11">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O11">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P11">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q11">
-        <v>25.362333447</v>
+        <v>5.30896163886</v>
       </c>
       <c r="R11">
-        <v>152.174000682</v>
+        <v>31.85376983316</v>
       </c>
       <c r="S11">
-        <v>0.00231022353313238</v>
+        <v>0.001780029810753045</v>
       </c>
       <c r="T11">
-        <v>0.002561400736400612</v>
+        <v>0.002594705937544271</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>3.37788</v>
       </c>
       <c r="I12">
-        <v>0.0086871540276029</v>
+        <v>0.02067051132253712</v>
       </c>
       <c r="J12">
-        <v>0.01138564535619806</v>
+        <v>0.03065791054832958</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N12">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O12">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P12">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q12">
-        <v>31.15998518336</v>
+        <v>0.25620319032</v>
       </c>
       <c r="R12">
-        <v>280.43986665024</v>
+        <v>2.30582871288</v>
       </c>
       <c r="S12">
-        <v>0.002838324447278707</v>
+        <v>8.590179161241107E-05</v>
       </c>
       <c r="T12">
-        <v>0.004720378499183275</v>
+        <v>0.0001878254123014825</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>3.37788</v>
       </c>
       <c r="I13">
-        <v>0.0086871540276029</v>
+        <v>0.02067051132253712</v>
       </c>
       <c r="J13">
-        <v>0.01138564535619806</v>
+        <v>0.03065791054832958</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N13">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O13">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P13">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q13">
-        <v>0.6244386499999999</v>
+        <v>0.1942712618</v>
       </c>
       <c r="R13">
-        <v>5.619947849999999</v>
+        <v>1.7484413562</v>
       </c>
       <c r="S13">
-        <v>5.687934303213932E-05</v>
+        <v>6.513677455218255E-05</v>
       </c>
       <c r="T13">
-        <v>9.459525606877038E-05</v>
+        <v>0.0001424224257330249</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.031281</v>
+        <v>0.003108</v>
       </c>
       <c r="H14">
-        <v>0.093843</v>
+        <v>0.009324000000000001</v>
       </c>
       <c r="I14">
-        <v>0.0002413432672008298</v>
+        <v>5.705704393623696E-05</v>
       </c>
       <c r="J14">
-        <v>0.0003163117449884822</v>
+        <v>8.462537388913312E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N14">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O14">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P14">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q14">
-        <v>0.9799358986724999</v>
+        <v>0.149566061778</v>
       </c>
       <c r="R14">
-        <v>5.879615392034999</v>
+        <v>0.897396370668</v>
       </c>
       <c r="S14">
-        <v>8.926114699995084E-05</v>
+        <v>5.014766855594383E-05</v>
       </c>
       <c r="T14">
-        <v>9.896599371388024E-05</v>
+        <v>7.309903046009255E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.031281</v>
+        <v>0.003108</v>
       </c>
       <c r="H15">
-        <v>0.093843</v>
+        <v>0.009324000000000001</v>
       </c>
       <c r="I15">
-        <v>0.0002413432672008298</v>
+        <v>5.705704393623696E-05</v>
       </c>
       <c r="J15">
-        <v>0.0003163117449884822</v>
+        <v>8.462537388913312E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.394928</v>
       </c>
       <c r="O15">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P15">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q15">
-        <v>0.04582591425599999</v>
+        <v>0.004553145408</v>
       </c>
       <c r="R15">
-        <v>0.412433228304</v>
+        <v>0.040978308672</v>
       </c>
       <c r="S15">
-        <v>4.174225757371725E-06</v>
+        <v>1.52661388615226E-06</v>
       </c>
       <c r="T15">
-        <v>6.942097664249062E-06</v>
+        <v>3.337961609525838E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.031281</v>
+        <v>0.003108</v>
       </c>
       <c r="H16">
-        <v>0.093843</v>
+        <v>0.009324000000000001</v>
       </c>
       <c r="I16">
-        <v>0.0002413432672008298</v>
+        <v>5.705704393623696E-05</v>
       </c>
       <c r="J16">
-        <v>0.0003163117449884822</v>
+        <v>8.462537388913312E-05</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N16">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O16">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P16">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q16">
-        <v>0.03614779182299999</v>
+        <v>0.000156318932</v>
       </c>
       <c r="R16">
-        <v>0.325330126407</v>
+        <v>0.001406870388</v>
       </c>
       <c r="S16">
-        <v>3.292657574855077E-06</v>
+        <v>5.241182322892573E-08</v>
       </c>
       <c r="T16">
-        <v>5.475973698644839E-06</v>
+        <v>1.145991500603708E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.031281</v>
+        <v>0.003108</v>
       </c>
       <c r="H17">
-        <v>0.093843</v>
+        <v>0.009324000000000001</v>
       </c>
       <c r="I17">
-        <v>0.0002413432672008298</v>
+        <v>5.705704393623696E-05</v>
       </c>
       <c r="J17">
-        <v>0.0003163117449884822</v>
+        <v>8.462537388913312E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N17">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O17">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P17">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q17">
-        <v>0.704606871075</v>
+        <v>0.014654386278</v>
       </c>
       <c r="R17">
-        <v>4.22764122645</v>
+        <v>0.08792631766800001</v>
       </c>
       <c r="S17">
-        <v>6.418176697210733E-05</v>
+        <v>4.913436224928475E-06</v>
       </c>
       <c r="T17">
-        <v>7.11598781798177E-05</v>
+        <v>7.162195862985892E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.031281</v>
+        <v>0.003108</v>
       </c>
       <c r="H18">
-        <v>0.093843</v>
+        <v>0.009324000000000001</v>
       </c>
       <c r="I18">
-        <v>0.0002413432672008298</v>
+        <v>5.705704393623696E-05</v>
       </c>
       <c r="J18">
-        <v>0.0003163117449884822</v>
+        <v>8.462537388913312E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N18">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O18">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P18">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q18">
-        <v>0.8656750652959999</v>
+        <v>0.000707200536</v>
       </c>
       <c r="R18">
-        <v>7.791075587663999</v>
+        <v>0.006364804824</v>
       </c>
       <c r="S18">
-        <v>7.885326924164734E-05</v>
+        <v>2.371156775830168E-07</v>
       </c>
       <c r="T18">
-        <v>0.0001311397916737291</v>
+        <v>5.184565894285832E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.031281</v>
+        <v>0.003108</v>
       </c>
       <c r="H19">
-        <v>0.093843</v>
+        <v>0.009324000000000001</v>
       </c>
       <c r="I19">
-        <v>0.0002413432672008298</v>
+        <v>5.705704393623696E-05</v>
       </c>
       <c r="J19">
-        <v>0.0003163117449884822</v>
+        <v>8.462537388913312E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N19">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O19">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P19">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q19">
-        <v>0.01734792125</v>
+        <v>0.00053624914</v>
       </c>
       <c r="R19">
-        <v>0.15613129125</v>
+        <v>0.00482624226</v>
       </c>
       <c r="S19">
-        <v>1.580200654897465E-06</v>
+        <v>1.797977684004612E-07</v>
       </c>
       <c r="T19">
-        <v>2.62801005816122E-06</v>
+        <v>3.931302170398961E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>32.441898</v>
+        <v>6.453904</v>
       </c>
       <c r="H20">
-        <v>64.883796</v>
+        <v>12.907808</v>
       </c>
       <c r="I20">
-        <v>0.2502999794608889</v>
+        <v>0.1184815585869548</v>
       </c>
       <c r="J20">
-        <v>0.2187004543145115</v>
+        <v>0.1171523035273642</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N20">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O20">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P20">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q20">
-        <v>1016.303202304005</v>
+        <v>310.580760737864</v>
       </c>
       <c r="R20">
-        <v>4065.21280921602</v>
+        <v>1242.323042951456</v>
       </c>
       <c r="S20">
-        <v>0.09257379963349674</v>
+        <v>0.1041339249304633</v>
       </c>
       <c r="T20">
-        <v>0.06842587456782806</v>
+        <v>0.1011956510258501</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>32.441898</v>
+        <v>6.453904</v>
       </c>
       <c r="H21">
-        <v>64.883796</v>
+        <v>12.907808</v>
       </c>
       <c r="I21">
-        <v>0.2502999794608889</v>
+        <v>0.1184815585869548</v>
       </c>
       <c r="J21">
-        <v>0.2187004543145115</v>
+        <v>0.1171523035273642</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.394928</v>
       </c>
       <c r="O21">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P21">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q21">
-        <v>47.52660196444801</v>
+        <v>9.454814466304001</v>
       </c>
       <c r="R21">
-        <v>285.159611786688</v>
+        <v>56.728886797824</v>
       </c>
       <c r="S21">
-        <v>0.004329139293808583</v>
+        <v>0.003170083483363454</v>
       </c>
       <c r="T21">
-        <v>0.004799821496107463</v>
+        <v>0.004620953192527937</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>32.441898</v>
+        <v>6.453904</v>
       </c>
       <c r="H22">
-        <v>64.883796</v>
+        <v>12.907808</v>
       </c>
       <c r="I22">
-        <v>0.2502999794608889</v>
+        <v>0.1184815585869548</v>
       </c>
       <c r="J22">
-        <v>0.2187004543145115</v>
+        <v>0.1171523035273642</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N22">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O22">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P22">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q22">
-        <v>37.48930581653401</v>
+        <v>0.3246034042826667</v>
       </c>
       <c r="R22">
-        <v>224.935834899204</v>
+        <v>1.947620425696</v>
       </c>
       <c r="S22">
-        <v>0.003414854422568837</v>
+        <v>0.0001088355455548445</v>
       </c>
       <c r="T22">
-        <v>0.003786131734537869</v>
+        <v>0.0001586469139792422</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>32.441898</v>
+        <v>6.453904</v>
       </c>
       <c r="H23">
-        <v>64.883796</v>
+        <v>12.907808</v>
       </c>
       <c r="I23">
-        <v>0.2502999794608889</v>
+        <v>0.1184815585869548</v>
       </c>
       <c r="J23">
-        <v>0.2187004543145115</v>
+        <v>0.1171523035273642</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N23">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O23">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P23">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q23">
-        <v>730.7561855923501</v>
+        <v>30.430502643864</v>
       </c>
       <c r="R23">
-        <v>2923.0247423694</v>
+        <v>121.722010575456</v>
       </c>
       <c r="S23">
-        <v>0.06656367563597312</v>
+        <v>0.01020297480881943</v>
       </c>
       <c r="T23">
-        <v>0.04920050530358304</v>
+        <v>0.009915084626535415</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>32.441898</v>
+        <v>6.453904</v>
       </c>
       <c r="H24">
-        <v>64.883796</v>
+        <v>12.907808</v>
       </c>
       <c r="I24">
-        <v>0.2502999794608889</v>
+        <v>0.1184815585869548</v>
       </c>
       <c r="J24">
-        <v>0.2187004543145115</v>
+        <v>0.1171523035273642</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N24">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O24">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P24">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q24">
-        <v>897.801929908768</v>
+        <v>1.468534223968</v>
       </c>
       <c r="R24">
-        <v>5386.811579452608</v>
+        <v>8.811205343807998</v>
       </c>
       <c r="S24">
-        <v>0.08177966553831595</v>
+        <v>0.0004923815379716031</v>
       </c>
       <c r="T24">
-        <v>0.09067109417261533</v>
+        <v>0.000717732530317351</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>2</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>32.441898</v>
+        <v>6.453904</v>
       </c>
       <c r="H25">
-        <v>64.883796</v>
+        <v>12.907808</v>
       </c>
       <c r="I25">
-        <v>0.2502999794608889</v>
+        <v>0.1184815585869548</v>
       </c>
       <c r="J25">
-        <v>0.2187004543145115</v>
+        <v>0.1171523035273642</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N25">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O25">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P25">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q25">
-        <v>17.9917359325</v>
+        <v>1.113545839653333</v>
       </c>
       <c r="R25">
-        <v>107.950415595</v>
+        <v>6.68127503792</v>
       </c>
       <c r="S25">
-        <v>0.001638844936725705</v>
+        <v>0.000373358280782114</v>
       </c>
       <c r="T25">
-        <v>0.00181702703983974</v>
+        <v>0.0005442352381541514</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>36.27039133333333</v>
+        <v>0.107048</v>
       </c>
       <c r="H26">
-        <v>108.811174</v>
+        <v>0.321144</v>
       </c>
       <c r="I26">
-        <v>0.2798380725373015</v>
+        <v>0.001965200270040635</v>
       </c>
       <c r="J26">
-        <v>0.3667641946888459</v>
+        <v>0.002914728772227774</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N26">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O26">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P26">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q26">
-        <v>1136.237924824438</v>
+        <v>5.151463250068</v>
       </c>
       <c r="R26">
-        <v>6817.42754894663</v>
+        <v>30.908779500408</v>
       </c>
       <c r="S26">
-        <v>0.1034985049247278</v>
+        <v>0.001727222530108325</v>
       </c>
       <c r="T26">
-        <v>0.1147512969756287</v>
+        <v>0.002517730055563702</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>36.27039133333333</v>
+        <v>0.107048</v>
       </c>
       <c r="H27">
-        <v>108.811174</v>
+        <v>0.321144</v>
       </c>
       <c r="I27">
-        <v>0.2798380725373015</v>
+        <v>0.001965200270040635</v>
       </c>
       <c r="J27">
-        <v>0.3667641946888459</v>
+        <v>0.002914728772227774</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.394928</v>
       </c>
       <c r="O27">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P27">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q27">
-        <v>53.13525281394133</v>
+        <v>0.156822750848</v>
       </c>
       <c r="R27">
-        <v>478.217275325472</v>
+        <v>1.411404757632</v>
       </c>
       <c r="S27">
-        <v>0.004840024351317164</v>
+        <v>5.258074751764066E-05</v>
       </c>
       <c r="T27">
-        <v>0.008049378183451063</v>
+        <v>0.0001149685052691512</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>36.27039133333333</v>
+        <v>0.107048</v>
       </c>
       <c r="H28">
-        <v>108.811174</v>
+        <v>0.321144</v>
       </c>
       <c r="I28">
-        <v>0.2798380725373015</v>
+        <v>0.001965200270040635</v>
       </c>
       <c r="J28">
-        <v>0.3667641946888459</v>
+        <v>0.002914728772227774</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N28">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O28">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P28">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q28">
-        <v>41.91344762814733</v>
+        <v>0.005384050525333334</v>
       </c>
       <c r="R28">
-        <v>377.221028653326</v>
+        <v>0.048456454728</v>
       </c>
       <c r="S28">
-        <v>0.003817844019265942</v>
+        <v>1.805206194662176E-06</v>
       </c>
       <c r="T28">
-        <v>0.006349404078542535</v>
+        <v>3.947107405296836E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>36.27039133333333</v>
+        <v>0.107048</v>
       </c>
       <c r="H29">
-        <v>108.811174</v>
+        <v>0.321144</v>
       </c>
       <c r="I29">
-        <v>0.2798380725373015</v>
+        <v>0.001965200270040635</v>
       </c>
       <c r="J29">
-        <v>0.3667641946888459</v>
+        <v>0.002914728772227774</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N29">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O29">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P29">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q29">
-        <v>816.9932850626833</v>
+        <v>0.5047370470679999</v>
       </c>
       <c r="R29">
-        <v>4901.9597103761</v>
+        <v>3.028422282408</v>
       </c>
       <c r="S29">
-        <v>0.07441890619043962</v>
+        <v>0.0001692321496158762</v>
       </c>
       <c r="T29">
-        <v>0.08251004216023515</v>
+        <v>0.0002466855671624562</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>36.27039133333333</v>
+        <v>0.107048</v>
       </c>
       <c r="H30">
-        <v>108.811174</v>
+        <v>0.321144</v>
       </c>
       <c r="I30">
-        <v>0.2798380725373015</v>
+        <v>0.001965200270040635</v>
       </c>
       <c r="J30">
-        <v>0.3667641946888459</v>
+        <v>0.002914728772227774</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N30">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O30">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P30">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q30">
-        <v>1003.752226137106</v>
+        <v>0.024357916016</v>
       </c>
       <c r="R30">
-        <v>9033.770035233951</v>
+        <v>0.219221244144</v>
       </c>
       <c r="S30">
-        <v>0.09143054676344253</v>
+        <v>8.166910892505398E-06</v>
       </c>
       <c r="T30">
-        <v>0.152056889593618</v>
+        <v>1.785705951903184E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>36.27039133333333</v>
+        <v>0.107048</v>
       </c>
       <c r="H31">
-        <v>108.811174</v>
+        <v>0.321144</v>
       </c>
       <c r="I31">
-        <v>0.2798380725373015</v>
+        <v>0.001965200270040635</v>
       </c>
       <c r="J31">
-        <v>0.3667641946888459</v>
+        <v>0.002914728772227774</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N31">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O31">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P31">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q31">
-        <v>20.11495452694444</v>
+        <v>0.01846988350666667</v>
       </c>
       <c r="R31">
-        <v>181.0345907425</v>
+        <v>0.16622895156</v>
       </c>
       <c r="S31">
-        <v>0.001832246288108458</v>
+        <v>6.192725711625667E-06</v>
       </c>
       <c r="T31">
-        <v>0.003047183697370401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.02706633333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.08119900000000001</v>
-      </c>
-      <c r="I32">
-        <v>0.0002088257190567243</v>
-      </c>
-      <c r="J32">
-        <v>0.0002736932683452124</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>31.3268725</v>
-      </c>
-      <c r="N32">
-        <v>62.653745</v>
-      </c>
-      <c r="O32">
-        <v>0.3698514072309863</v>
-      </c>
-      <c r="P32">
-        <v>0.3128748624793679</v>
-      </c>
-      <c r="Q32">
-        <v>0.8479035733758333</v>
-      </c>
-      <c r="R32">
-        <v>5.087421440255</v>
-      </c>
-      <c r="S32">
-        <v>7.723448605915209E-05</v>
-      </c>
-      <c r="T32">
-        <v>8.563174369503705E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.02706633333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.08119900000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.0002088257190567243</v>
-      </c>
-      <c r="J33">
-        <v>0.0002736932683452124</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.464976</v>
-      </c>
-      <c r="N33">
-        <v>4.394928</v>
-      </c>
-      <c r="O33">
-        <v>0.01729580363183785</v>
-      </c>
-      <c r="P33">
-        <v>0.02194701200393884</v>
-      </c>
-      <c r="Q33">
-        <v>0.03965152874133333</v>
-      </c>
-      <c r="R33">
-        <v>0.356863758672</v>
-      </c>
-      <c r="S33">
-        <v>3.611808630082444E-06</v>
-      </c>
-      <c r="T33">
-        <v>6.006749445769632E-06</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.02706633333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.08119900000000001</v>
-      </c>
-      <c r="I34">
-        <v>0.0002088257190567243</v>
-      </c>
-      <c r="J34">
-        <v>0.0002736932683452124</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1.155583</v>
-      </c>
-      <c r="N34">
-        <v>3.466749</v>
-      </c>
-      <c r="O34">
-        <v>0.01364304715455412</v>
-      </c>
-      <c r="P34">
-        <v>0.01731195184941436</v>
-      </c>
-      <c r="Q34">
-        <v>0.03127739467233333</v>
-      </c>
-      <c r="R34">
-        <v>0.281496552051</v>
-      </c>
-      <c r="S34">
-        <v>2.849019132174562E-06</v>
-      </c>
-      <c r="T34">
-        <v>4.738164683101162E-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.02706633333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.08119900000000001</v>
-      </c>
-      <c r="I35">
-        <v>0.0002088257190567243</v>
-      </c>
-      <c r="J35">
-        <v>0.0002736932683452124</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>22.525075</v>
-      </c>
-      <c r="N35">
-        <v>45.05015</v>
-      </c>
-      <c r="O35">
-        <v>0.2659356016702117</v>
-      </c>
-      <c r="P35">
-        <v>0.2249675496001858</v>
-      </c>
-      <c r="Q35">
-        <v>0.6096711883083334</v>
-      </c>
-      <c r="R35">
-        <v>3.658027129850001</v>
-      </c>
-      <c r="S35">
-        <v>5.553419324156458E-05</v>
-      </c>
-      <c r="T35">
-        <v>6.157210392168854E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.02706633333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.08119900000000001</v>
-      </c>
-      <c r="I36">
-        <v>0.0002088257190567243</v>
-      </c>
-      <c r="J36">
-        <v>0.0002736932683452124</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>27.67414933333333</v>
-      </c>
-      <c r="N36">
-        <v>83.022448</v>
-      </c>
-      <c r="O36">
-        <v>0.3267266170554943</v>
-      </c>
-      <c r="P36">
-        <v>0.4145903329593541</v>
-      </c>
-      <c r="Q36">
-        <v>0.7490377505724445</v>
-      </c>
-      <c r="R36">
-        <v>6.741339755152</v>
-      </c>
-      <c r="S36">
-        <v>6.82289207415846E-05</v>
-      </c>
-      <c r="T36">
-        <v>0.0001134705832519755</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.02706633333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.08119900000000001</v>
-      </c>
-      <c r="I37">
-        <v>0.0002088257190567243</v>
-      </c>
-      <c r="J37">
-        <v>0.0002736932683452124</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.5545833333333333</v>
-      </c>
-      <c r="N37">
-        <v>1.66375</v>
-      </c>
-      <c r="O37">
-        <v>0.006547523256915751</v>
-      </c>
-      <c r="P37">
-        <v>0.008308291107739021</v>
-      </c>
-      <c r="Q37">
-        <v>0.01501053736111111</v>
-      </c>
-      <c r="R37">
-        <v>0.13509483625</v>
-      </c>
-      <c r="S37">
-        <v>1.367291252166057E-06</v>
-      </c>
-      <c r="T37">
-        <v>2.273923347640558E-06</v>
+        <v>1.354047730813603E-05</v>
       </c>
     </row>
   </sheetData>
